--- a/Task Tracking Sheet.xlsx
+++ b/Task Tracking Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -49,6 +49,21 @@
   </si>
   <si>
     <t xml:space="preserve"> -  </t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Exercise 2</t>
+  </si>
+  <si>
+    <t>1.5 hrs</t>
   </si>
 </sst>
 </file>
@@ -391,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -454,6 +469,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
